--- a/elaborati MPI/elaborato_2/prodotto_matrice_vettore_blocchi/test_valutazione_elab2_prodotto_blocchi.xlsx
+++ b/elaborati MPI/elaborato_2/prodotto_matrice_vettore_blocchi/test_valutazione_elab2_prodotto_blocchi.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabio/Desktop/CP/GIT/Calcolo-Parallelo/elaborati MPI/elaborato_2/prodotto_matrice_vettore_blocchi/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB30ACC-D654-6048-A0F7-CA265E640F5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Foglio1" sheetId="1" r:id="rId3"/>
+    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="17">
   <si>
     <t>CALCOLO SPEEDUP</t>
   </si>
@@ -52,9 +61,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>0,17 circa</t>
-  </si>
-  <si>
     <t>CALCOLO T(1)</t>
   </si>
   <si>
@@ -70,7 +76,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0000000000000000"/>
     <numFmt numFmtId="165" formatCode="0.000000000000000"/>
@@ -78,25 +84,35 @@
     <numFmt numFmtId="167" formatCode="0.0000"/>
     <numFmt numFmtId="168" formatCode="#,##0.000000000000000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
-    <font/>
     <font>
-      <sz val="12.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,15 +120,25 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="10">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -127,16 +153,21 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -146,6 +177,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -154,19 +186,29 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -175,159 +217,442 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="39">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z991"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.14"/>
-    <col customWidth="1" min="2" max="2" width="14.0"/>
-    <col customWidth="1" min="3" max="3" width="30.14"/>
-    <col customWidth="1" min="4" max="4" width="26.29"/>
-    <col customWidth="1" min="5" max="5" width="26.43"/>
-    <col customWidth="1" min="6" max="6" width="24.86"/>
-    <col customWidth="1" min="7" max="7" width="30.86"/>
-    <col customWidth="1" min="8" max="8" width="15.71"/>
-    <col customWidth="1" min="9" max="9" width="15.0"/>
-    <col customWidth="1" min="10" max="10" width="18.43"/>
-    <col customWidth="1" min="11" max="11" width="18.29"/>
-    <col customWidth="1" min="12" max="26" width="8.86"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" customWidth="1"/>
+    <col min="7" max="7" width="30.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1"/>
+    <col min="12" max="26" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -354,7 +679,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -383,7 +708,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -416,17 +741,17 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="D4" s="8">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="E4" s="9">
-        <v>300000.0</v>
+        <v>300000</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -449,24 +774,24 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="12">
-        <f t="shared" ref="C5:E5" si="1">C$59/C41</f>
-        <v>3.718285827</v>
+        <f t="shared" ref="C5:E5" si="0">C$59/C41</f>
+        <v>3.7182858267888887</v>
       </c>
       <c r="D5" s="12">
-        <f t="shared" si="1"/>
-        <v>3.943103914</v>
+        <f t="shared" si="0"/>
+        <v>3.8896790109316965</v>
       </c>
       <c r="E5" s="13">
-        <f t="shared" si="1"/>
-        <v>2.977069569</v>
+        <f t="shared" si="0"/>
+        <v>3.9095156112559328</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -489,24 +814,24 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="12">
-        <f t="shared" ref="C6:E6" si="2">C$59/C42</f>
-        <v>7.439989495</v>
+        <f t="shared" ref="C6:E6" si="1">C$59/C42</f>
+        <v>7.4399894948787511</v>
       </c>
       <c r="D6" s="12">
-        <f t="shared" si="2"/>
-        <v>8.665506819</v>
+        <f t="shared" si="1"/>
+        <v>8.6655068187542774</v>
       </c>
       <c r="E6" s="14">
-        <f t="shared" si="2"/>
-        <v>8.789554041</v>
+        <f t="shared" si="1"/>
+        <v>8.6825533620352893</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -529,24 +854,24 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="16">
-        <f t="shared" ref="C7:E7" si="3">C$59/C43</f>
-        <v>9.823950988</v>
+        <f t="shared" ref="C7:E7" si="2">C$59/C43</f>
+        <v>9.8239509883251355</v>
       </c>
       <c r="D7" s="16">
-        <f t="shared" si="3"/>
-        <v>11.72676055</v>
+        <f t="shared" si="2"/>
+        <v>11.726760549663515</v>
       </c>
       <c r="E7" s="17">
-        <f t="shared" si="3"/>
-        <v>11.88771572</v>
+        <f t="shared" si="2"/>
+        <v>15.341042789664503</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -569,7 +894,7 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
@@ -600,17 +925,17 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D9" s="8">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="E9" s="18">
-        <v>10000.0</v>
+        <v>10000</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -633,24 +958,24 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="12">
-        <f t="shared" ref="C10:E10" si="4">C$60/C46</f>
-        <v>1.542750929</v>
+        <f t="shared" ref="C10:E10" si="3">C$60/C46</f>
+        <v>1.5427509293677633</v>
       </c>
       <c r="D10" s="12">
-        <f t="shared" si="4"/>
-        <v>3.960592282</v>
+        <f t="shared" si="3"/>
+        <v>3.8138870001166048</v>
       </c>
       <c r="E10" s="13">
-        <f t="shared" si="4"/>
-        <v>3.942325957</v>
+        <f t="shared" si="3"/>
+        <v>3.9423259566620659</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -673,24 +998,24 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="12">
-        <f t="shared" ref="C11:E11" si="5">C$60/C47</f>
-        <v>1.976190476</v>
+        <f t="shared" ref="C11:E11" si="4">C$60/C47</f>
+        <v>1.976190476190619</v>
       </c>
       <c r="D11" s="12">
-        <f t="shared" si="5"/>
-        <v>8.52446675</v>
+        <f t="shared" si="4"/>
+        <v>8.2087098619826868</v>
       </c>
       <c r="E11" s="14">
-        <f t="shared" si="5"/>
-        <v>8.304852969</v>
+        <f t="shared" si="4"/>
+        <v>8.3048529686707049</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -713,24 +1038,24 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="16">
-        <f t="shared" ref="C12:E12" si="6">C$60/C48</f>
-        <v>2.014563107</v>
+        <f t="shared" ref="C12:E12" si="5">C$60/C48</f>
+        <v>2.0145631067960275</v>
       </c>
       <c r="D12" s="16">
-        <f t="shared" si="6"/>
-        <v>8.580449608</v>
+        <f t="shared" si="5"/>
+        <v>8.2626190452133379</v>
       </c>
       <c r="E12" s="17">
-        <f t="shared" si="6"/>
-        <v>12.24974661</v>
+        <f t="shared" si="5"/>
+        <v>12.249746614664463</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -753,7 +1078,7 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>1</v>
       </c>
@@ -786,17 +1111,17 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="D14" s="8">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="E14" s="9">
-        <v>300000.0</v>
+        <v>300000</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -819,24 +1144,24 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="12">
-        <f t="shared" ref="C15:E15" si="7">C$61/C51</f>
-        <v>3.844396615</v>
+        <f t="shared" ref="C15:E15" si="6">C$61/C51</f>
+        <v>3.8443966148324731</v>
       </c>
       <c r="D15" s="12">
-        <f t="shared" si="7"/>
-        <v>3.952429508</v>
+        <f t="shared" si="6"/>
+        <v>3.9524295078555873</v>
       </c>
       <c r="E15" s="13">
-        <f t="shared" si="7"/>
-        <v>3.931585257</v>
+        <f t="shared" si="6"/>
+        <v>3.9315852573179706</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -859,24 +1184,24 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="12">
-        <f t="shared" ref="C16:E16" si="8">C$61/C52</f>
-        <v>3.822853445</v>
+        <f t="shared" ref="C16:E16" si="7">C$61/C52</f>
+        <v>4.2175737812621232</v>
       </c>
       <c r="D16" s="12">
-        <f t="shared" si="8"/>
-        <v>7.6847959</v>
+        <f t="shared" si="7"/>
+        <v>7.6847959000179671</v>
       </c>
       <c r="E16" s="14">
-        <f t="shared" si="8"/>
-        <v>8.649321573</v>
+        <f t="shared" si="7"/>
+        <v>8.6493215733208153</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -899,24 +1224,24 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="16">
-        <f t="shared" ref="C17:E17" si="9">C$61/C53</f>
-        <v>9.103347503</v>
+        <f t="shared" ref="C17:E17" si="8">C$61/C53</f>
+        <v>7.3110412995036862</v>
       </c>
       <c r="D17" s="16">
-        <f t="shared" si="9"/>
-        <v>15.59605857</v>
+        <f t="shared" si="8"/>
+        <v>13.52568465803761</v>
       </c>
       <c r="E17" s="17">
-        <f t="shared" si="9"/>
-        <v>6.583187863</v>
+        <f t="shared" si="8"/>
+        <v>14.218077439188493</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -939,7 +1264,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="12"/>
@@ -966,7 +1291,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
@@ -993,7 +1318,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
@@ -1022,7 +1347,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>1</v>
       </c>
@@ -1055,17 +1380,17 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="D22" s="8">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="E22" s="9">
-        <v>300000.0</v>
+        <v>300000</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1088,24 +1413,24 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="12">
-        <f t="shared" ref="C23:E23" si="10">C5/4</f>
-        <v>0.9295714567</v>
-      </c>
-      <c r="D23" s="12">
-        <f t="shared" si="10"/>
-        <v>0.9857759785</v>
-      </c>
-      <c r="E23" s="13">
-        <f t="shared" si="10"/>
-        <v>0.7442673922</v>
+      <c r="C23" s="37">
+        <f t="shared" ref="C23:E23" si="9">C5/4</f>
+        <v>0.92957145669722219</v>
+      </c>
+      <c r="D23" s="37">
+        <f t="shared" si="9"/>
+        <v>0.97241975273292414</v>
+      </c>
+      <c r="E23" s="38">
+        <f t="shared" si="9"/>
+        <v>0.97737890281398321</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1128,24 +1453,24 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="12">
-        <f t="shared" ref="C24:E24" si="11">C6/9</f>
-        <v>0.8266654994</v>
+        <f t="shared" ref="C24:E24" si="10">C6/9</f>
+        <v>0.82666549943097234</v>
       </c>
       <c r="D24" s="12">
-        <f t="shared" si="11"/>
-        <v>0.962834091</v>
+        <f t="shared" si="10"/>
+        <v>0.96283409097269745</v>
       </c>
       <c r="E24" s="14">
-        <f t="shared" si="11"/>
-        <v>0.9766171156</v>
+        <f t="shared" si="10"/>
+        <v>0.96472815133725431</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1168,24 +1493,24 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="16">
-        <f t="shared" ref="C25:E25" si="12">C7/16</f>
-        <v>0.6139969368</v>
+        <f t="shared" ref="C25:E25" si="11">C7/16</f>
+        <v>0.61399693677032097</v>
       </c>
       <c r="D25" s="16">
-        <f t="shared" si="12"/>
-        <v>0.7329225344</v>
+        <f t="shared" si="11"/>
+        <v>0.7329225343539697</v>
       </c>
       <c r="E25" s="17">
-        <f t="shared" si="12"/>
-        <v>0.7429822328</v>
+        <f t="shared" si="11"/>
+        <v>0.95881517435403141</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1208,7 +1533,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>1</v>
       </c>
@@ -1239,17 +1564,17 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D27" s="8">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="E27" s="18">
-        <v>10000.0</v>
+        <v>10000</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
@@ -1272,24 +1597,24 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="12">
-        <f t="shared" ref="C28:E28" si="13">C10/4</f>
-        <v>0.3856877323</v>
-      </c>
-      <c r="D28" s="12">
-        <f t="shared" si="13"/>
-        <v>0.9901480704</v>
-      </c>
-      <c r="E28" s="13">
-        <f t="shared" si="13"/>
-        <v>0.9855814892</v>
+      <c r="C28" s="37">
+        <f t="shared" ref="C28:E28" si="12">C10/4</f>
+        <v>0.38568773234194081</v>
+      </c>
+      <c r="D28" s="37">
+        <f t="shared" si="12"/>
+        <v>0.95347175002915119</v>
+      </c>
+      <c r="E28" s="38">
+        <f t="shared" si="12"/>
+        <v>0.98558148916551647</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -1312,24 +1637,24 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="12">
-        <f t="shared" ref="C29:E29" si="14">C11/9</f>
-        <v>0.2195767196</v>
+        <f t="shared" ref="C29:E29" si="13">C11/9</f>
+        <v>0.21957671957673544</v>
       </c>
       <c r="D29" s="12">
-        <f t="shared" si="14"/>
-        <v>0.9471629723</v>
+        <f t="shared" si="13"/>
+        <v>0.91207887355363182</v>
       </c>
       <c r="E29" s="14">
-        <f t="shared" si="14"/>
-        <v>0.922761441</v>
+        <f t="shared" si="13"/>
+        <v>0.92276144096341162</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -1352,24 +1677,24 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="16">
-        <f t="shared" ref="C30:E30" si="15">C12/16</f>
-        <v>0.1259101942</v>
+        <f t="shared" ref="C30:E30" si="14">C12/16</f>
+        <v>0.12591019417475172</v>
       </c>
       <c r="D30" s="16">
-        <f t="shared" si="15"/>
-        <v>0.5362781005</v>
+        <f t="shared" si="14"/>
+        <v>0.51641369032583362</v>
       </c>
       <c r="E30" s="17">
-        <f t="shared" si="15"/>
-        <v>0.7656091634</v>
+        <f t="shared" si="14"/>
+        <v>0.76560916341652896</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -1392,7 +1717,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>1</v>
       </c>
@@ -1425,17 +1750,17 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="7"/>
       <c r="C32" s="8">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="D32" s="8">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="E32" s="9">
-        <v>300000.0</v>
+        <v>300000</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
@@ -1458,24 +1783,24 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="12">
-        <f t="shared" ref="C33:E33" si="16">C15/4</f>
-        <v>0.9610991537</v>
-      </c>
-      <c r="D33" s="12">
-        <f t="shared" si="16"/>
-        <v>0.988107377</v>
-      </c>
-      <c r="E33" s="13">
-        <f t="shared" si="16"/>
-        <v>0.9828963143</v>
+      <c r="C33" s="37">
+        <f t="shared" ref="C33:E33" si="15">C15/4</f>
+        <v>0.96109915370811827</v>
+      </c>
+      <c r="D33" s="37">
+        <f t="shared" si="15"/>
+        <v>0.98810737696389683</v>
+      </c>
+      <c r="E33" s="38">
+        <f t="shared" si="15"/>
+        <v>0.98289631432949265</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
@@ -1498,24 +1823,24 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="12">
-        <f t="shared" ref="C34:E34" si="17">C16/9</f>
-        <v>0.4247614939</v>
+        <f t="shared" ref="C34:E34" si="16">C16/9</f>
+        <v>0.4686193090291248</v>
       </c>
       <c r="D34" s="12">
-        <f t="shared" si="17"/>
-        <v>0.8538662111</v>
+        <f t="shared" si="16"/>
+        <v>0.85386621111310745</v>
       </c>
       <c r="E34" s="14">
-        <f t="shared" si="17"/>
-        <v>0.9610357304</v>
+        <f t="shared" si="16"/>
+        <v>0.96103573036897949</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -1538,24 +1863,24 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="16">
-        <f t="shared" ref="C35:E35" si="18">C17/16</f>
-        <v>0.5689592189</v>
+        <f t="shared" ref="C35:E35" si="17">C17/16</f>
+        <v>0.45694008121898039</v>
       </c>
       <c r="D35" s="16">
-        <f t="shared" si="18"/>
-        <v>0.9747536609</v>
+        <f t="shared" si="17"/>
+        <v>0.84535529112735064</v>
       </c>
       <c r="E35" s="17">
-        <f t="shared" si="18"/>
-        <v>0.4114492414</v>
+        <f t="shared" si="17"/>
+        <v>0.8886298399492808</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -1578,7 +1903,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="12"/>
@@ -1605,7 +1930,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="12"/>
@@ -1632,7 +1957,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
@@ -1661,7 +1986,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>1</v>
       </c>
@@ -1694,19 +2019,19 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="8">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="D40" s="8">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="E40" s="9">
-        <v>300000.0</v>
+        <v>300000</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -1729,21 +2054,21 @@
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C41" s="20">
-        <v>0.0108988285064697</v>
+        <v>1.0898828506469701E-2</v>
       </c>
       <c r="D41" s="20">
-        <v>0.145612955093383</v>
+        <v>0.14761295509338301</v>
       </c>
       <c r="E41" s="21">
-        <v>1.15630316734313</v>
+        <v>1.1363031673431301</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -1766,21 +2091,21 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="20">
-        <v>0.0054469108581543</v>
+        <v>5.4469108581543003E-3</v>
       </c>
       <c r="D42" s="20">
-        <v>0.0662589073181152</v>
+        <v>6.6258907318115207E-2</v>
       </c>
       <c r="E42" s="22">
-        <v>0.391646146774292</v>
+        <v>0.51164614677429199</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -1803,18 +2128,18 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="23">
-        <v>0.0041251182556152</v>
+        <v>4.1251182556151997E-3</v>
       </c>
       <c r="D43" s="23">
-        <v>0.0489621162414551</v>
+        <v>4.8962116241455099E-2</v>
       </c>
       <c r="E43" s="24">
         <v>0.289575815200805</v>
@@ -1841,7 +2166,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>1</v>
       </c>
@@ -1873,19 +2198,19 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="8">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D45" s="8">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="E45" s="18">
-        <v>10000.0</v>
+        <v>10000</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -1909,21 +2234,21 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="20">
-        <v>6.41345977783E-5</v>
+        <v>6.4134597778299997E-5</v>
       </c>
       <c r="D46" s="20">
-        <v>0.0020449161529541</v>
+        <v>2.0449161529540998E-3</v>
       </c>
       <c r="E46" s="22">
-        <v>0.206851959228515</v>
+        <v>0.20685195922851499</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -1947,21 +2272,21 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="10">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C47" s="20">
-        <v>5.00679016113E-5</v>
+        <v>5.0067901611299997E-5</v>
       </c>
       <c r="D47" s="20">
         <v>9.500980377197E-4</v>
       </c>
       <c r="E47" s="22">
-        <v>0.0981929302215576</v>
+        <v>9.8192930221557603E-2</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -1985,21 +2310,21 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="23">
-        <v>4.91142272949E-5</v>
+        <v>4.9114227294900001E-5</v>
       </c>
       <c r="D48" s="23">
-        <v>9.438991546631E-4</v>
+        <v>9.4389915466310003E-4</v>
       </c>
       <c r="E48" s="24">
-        <v>0.0665709972381592</v>
+        <v>6.6570997238159194E-2</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -2023,7 +2348,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>1</v>
       </c>
@@ -2057,19 +2382,19 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C50" s="8">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="D50" s="8">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="E50" s="9">
-        <v>300000.0</v>
+        <v>300000</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -2093,21 +2418,21 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="10">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C51" s="25">
-        <v>0.0106250907897949</v>
+        <v>1.06250907897949E-2</v>
       </c>
       <c r="D51" s="26">
         <v>0.10311484336853</v>
       </c>
       <c r="E51" s="22">
-        <v>0.62364387512207</v>
+        <v>0.62364387512206998</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2131,21 +2456,21 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="10">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C52" s="20">
-        <v>0.0106849670410156</v>
+        <v>9.6849670410155998E-3</v>
       </c>
       <c r="D52" s="27">
-        <v>0.0530338287353516</v>
+        <v>5.3033828735351597E-2</v>
       </c>
       <c r="E52" s="22">
-        <v>0.283479928970336</v>
+        <v>0.28347992897033603</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -2169,24 +2494,24 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C53" s="23">
-        <v>0.0044870376586914</v>
+        <v>5.5870376586913996E-3</v>
       </c>
       <c r="D53" s="28">
-        <v>0.0261318683624268</v>
+        <v>3.01318683624268E-2</v>
       </c>
       <c r="E53" s="29">
-        <v>0.372450113296508</v>
+        <v>0.172450113296508</v>
       </c>
       <c r="F53" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -2209,7 +2534,7 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="3"/>
@@ -2237,7 +2562,7 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="3"/>
@@ -2265,12 +2590,12 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
       <c r="D56" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="5"/>
@@ -2295,7 +2620,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="3"/>
@@ -2323,19 +2648,19 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="31"/>
       <c r="B58" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C58" s="8">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="D58" s="8">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="E58" s="9">
-        <v>300000.0</v>
+        <v>300000</v>
       </c>
       <c r="F58" s="31"/>
       <c r="G58" s="31"/>
@@ -2359,19 +2684,19 @@
       <c r="Y58" s="31"/>
       <c r="Z58" s="31"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C59" s="23">
-        <v>0.040524959564209</v>
+        <v>4.0524959564208998E-2</v>
       </c>
       <c r="D59" s="23">
-        <v>0.574167013168335</v>
+        <v>0.57416701316833496</v>
       </c>
       <c r="E59" s="24">
-        <v>3.44239497184753</v>
+        <v>4.4423949718475297</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -2395,28 +2720,28 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C60" s="23">
-        <v>9.89437103271E-5</v>
+        <v>9.8943710327100001E-5</v>
       </c>
       <c r="D60" s="23">
-        <v>0.0080990791320801</v>
+        <v>7.7990791320800999E-3</v>
       </c>
       <c r="E60" s="24">
-        <v>0.815477848052978</v>
+        <v>0.81547784805297796</v>
       </c>
       <c r="F60" s="8">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="G60" s="8">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="H60" s="18">
-        <v>10000.0</v>
+        <v>10000</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -2437,19 +2762,19 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C61" s="34">
-        <v>0.0408470630645752</v>
+        <v>4.0847063064575202E-2</v>
       </c>
       <c r="D61" s="23">
-        <v>0.407554149627685</v>
+        <v>0.40755414962768499</v>
       </c>
       <c r="E61" s="24">
-        <v>2.45190906524658</v>
+        <v>2.4519090652465798</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -2473,7 +2798,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="35"/>
       <c r="B62" s="31"/>
       <c r="C62" s="35"/>
@@ -2501,7 +2826,7 @@
       <c r="Y62" s="35"/>
       <c r="Z62" s="35"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="3"/>
@@ -2529,7 +2854,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="3"/>
@@ -2557,7 +2882,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="3"/>
@@ -2585,7 +2910,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
@@ -2615,7 +2940,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
@@ -2643,7 +2968,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
@@ -2671,7 +2996,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
@@ -2699,7 +3024,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
@@ -2727,7 +3052,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
@@ -2755,7 +3080,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
@@ -2783,7 +3108,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
@@ -2811,7 +3136,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -2839,7 +3164,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -2867,7 +3192,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -2895,7 +3220,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -2923,7 +3248,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -2951,7 +3276,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -2979,7 +3304,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -3007,7 +3332,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -3035,7 +3360,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -3063,7 +3388,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -3091,7 +3416,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -3119,7 +3444,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -3147,7 +3472,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -3175,7 +3500,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
@@ -3203,7 +3528,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -3231,7 +3556,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -3259,7 +3584,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -3287,7 +3612,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -3315,7 +3640,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -3343,7 +3668,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -3371,7 +3696,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -3399,7 +3724,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -3427,7 +3752,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -3455,7 +3780,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -3483,7 +3808,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -3511,7 +3836,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -3539,7 +3864,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -3567,7 +3892,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -3595,7 +3920,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -3623,7 +3948,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -3651,7 +3976,7 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -3679,7 +4004,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -3707,7 +4032,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -3735,7 +4060,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -3763,7 +4088,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -3791,7 +4116,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
@@ -3819,7 +4144,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
@@ -3847,7 +4172,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
@@ -3875,7 +4200,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
@@ -3903,7 +4228,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -3931,7 +4256,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -3959,7 +4284,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
@@ -3987,7 +4312,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
@@ -4015,7 +4340,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
@@ -4043,7 +4368,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
@@ -4071,7 +4396,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
@@ -4099,7 +4424,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
@@ -4127,7 +4452,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
@@ -4155,7 +4480,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
@@ -4183,7 +4508,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
@@ -4211,7 +4536,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
@@ -4239,7 +4564,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
@@ -4267,7 +4592,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
@@ -4295,7 +4620,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
@@ -4323,7 +4648,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
@@ -4351,7 +4676,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
@@ -4379,7 +4704,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
@@ -4407,7 +4732,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
@@ -4435,7 +4760,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
@@ -4463,7 +4788,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
@@ -4491,7 +4816,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
@@ -4519,7 +4844,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
@@ -4547,7 +4872,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
@@ -4575,7 +4900,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
@@ -4603,7 +4928,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
@@ -4631,7 +4956,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
@@ -4659,7 +4984,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
@@ -4687,7 +5012,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
@@ -4715,7 +5040,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
@@ -4743,7 +5068,7 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
@@ -4771,7 +5096,7 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
@@ -4799,7 +5124,7 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
@@ -4827,7 +5152,7 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
@@ -4855,7 +5180,7 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
@@ -4883,7 +5208,7 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
@@ -4911,7 +5236,7 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
@@ -4939,7 +5264,7 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
@@ -4967,7 +5292,7 @@
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
@@ -4995,7 +5320,7 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
@@ -5023,7 +5348,7 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
@@ -5051,7 +5376,7 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
@@ -5079,7 +5404,7 @@
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
@@ -5107,7 +5432,7 @@
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
@@ -5135,7 +5460,7 @@
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
@@ -5163,7 +5488,7 @@
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
@@ -5191,7 +5516,7 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
@@ -5219,7 +5544,7 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
@@ -5247,7 +5572,7 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
@@ -5275,7 +5600,7 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
@@ -5303,7 +5628,7 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
@@ -5331,7 +5656,7 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
@@ -5359,7 +5684,7 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
@@ -5387,7 +5712,7 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
@@ -5415,7 +5740,7 @@
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
@@ -5443,7 +5768,7 @@
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
@@ -5471,7 +5796,7 @@
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
@@ -5499,7 +5824,7 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
@@ -5527,7 +5852,7 @@
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
@@ -5555,7 +5880,7 @@
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
@@ -5583,7 +5908,7 @@
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
@@ -5611,7 +5936,7 @@
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
@@ -5639,7 +5964,7 @@
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
@@ -5667,7 +5992,7 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
@@ -5695,7 +6020,7 @@
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
@@ -5723,7 +6048,7 @@
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
@@ -5751,7 +6076,7 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
@@ -5779,7 +6104,7 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
@@ -5807,7 +6132,7 @@
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
@@ -5835,7 +6160,7 @@
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
@@ -5863,7 +6188,7 @@
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
@@ -5891,7 +6216,7 @@
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
@@ -5919,7 +6244,7 @@
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
@@ -5947,7 +6272,7 @@
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
@@ -5975,7 +6300,7 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
@@ -6003,7 +6328,7 @@
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
@@ -6031,7 +6356,7 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
@@ -6059,7 +6384,7 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
@@ -6087,7 +6412,7 @@
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
@@ -6115,7 +6440,7 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
@@ -6143,7 +6468,7 @@
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
@@ -6171,7 +6496,7 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
@@ -6199,7 +6524,7 @@
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
@@ -6227,7 +6552,7 @@
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
@@ -6255,7 +6580,7 @@
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
@@ -6283,7 +6608,7 @@
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
@@ -6311,7 +6636,7 @@
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
@@ -6339,7 +6664,7 @@
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
@@ -6367,7 +6692,7 @@
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="1"/>
@@ -6395,7 +6720,7 @@
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
       <c r="C202" s="1"/>
@@ -6423,7 +6748,7 @@
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
       <c r="C203" s="1"/>
@@ -6451,7 +6776,7 @@
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
       <c r="C204" s="1"/>
@@ -6479,7 +6804,7 @@
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="2"/>
       <c r="C205" s="1"/>
@@ -6507,7 +6832,7 @@
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
       <c r="C206" s="1"/>
@@ -6535,7 +6860,7 @@
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
       <c r="C207" s="1"/>
@@ -6563,7 +6888,7 @@
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
       <c r="C208" s="1"/>
@@ -6591,7 +6916,7 @@
       <c r="Y208" s="1"/>
       <c r="Z208" s="1"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
       <c r="C209" s="1"/>
@@ -6619,7 +6944,7 @@
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
       <c r="C210" s="1"/>
@@ -6647,7 +6972,7 @@
       <c r="Y210" s="1"/>
       <c r="Z210" s="1"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="2"/>
       <c r="C211" s="1"/>
@@ -6675,7 +7000,7 @@
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="2"/>
       <c r="C212" s="1"/>
@@ -6703,7 +7028,7 @@
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
       <c r="C213" s="1"/>
@@ -6731,7 +7056,7 @@
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
       <c r="C214" s="1"/>
@@ -6759,7 +7084,7 @@
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
       <c r="C215" s="1"/>
@@ -6787,7 +7112,7 @@
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
       <c r="C216" s="1"/>
@@ -6815,7 +7140,7 @@
       <c r="Y216" s="1"/>
       <c r="Z216" s="1"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
       <c r="C217" s="1"/>
@@ -6843,7 +7168,7 @@
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
       <c r="C218" s="1"/>
@@ -6871,7 +7196,7 @@
       <c r="Y218" s="1"/>
       <c r="Z218" s="1"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="2"/>
       <c r="C219" s="1"/>
@@ -6899,7 +7224,7 @@
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
       <c r="C220" s="1"/>
@@ -6927,7 +7252,7 @@
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
       <c r="C221" s="1"/>
@@ -6955,7 +7280,7 @@
       <c r="Y221" s="1"/>
       <c r="Z221" s="1"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
       <c r="C222" s="1"/>
@@ -6983,7 +7308,7 @@
       <c r="Y222" s="1"/>
       <c r="Z222" s="1"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="2"/>
       <c r="C223" s="1"/>
@@ -7011,7 +7336,7 @@
       <c r="Y223" s="1"/>
       <c r="Z223" s="1"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
       <c r="C224" s="1"/>
@@ -7039,7 +7364,7 @@
       <c r="Y224" s="1"/>
       <c r="Z224" s="1"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
       <c r="C225" s="1"/>
@@ -7067,7 +7392,7 @@
       <c r="Y225" s="1"/>
       <c r="Z225" s="1"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="2"/>
       <c r="C226" s="1"/>
@@ -7095,7 +7420,7 @@
       <c r="Y226" s="1"/>
       <c r="Z226" s="1"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" s="2"/>
       <c r="C227" s="1"/>
@@ -7123,7 +7448,7 @@
       <c r="Y227" s="1"/>
       <c r="Z227" s="1"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" s="2"/>
       <c r="C228" s="1"/>
@@ -7151,7 +7476,7 @@
       <c r="Y228" s="1"/>
       <c r="Z228" s="1"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="2"/>
       <c r="C229" s="1"/>
@@ -7179,7 +7504,7 @@
       <c r="Y229" s="1"/>
       <c r="Z229" s="1"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="2"/>
       <c r="C230" s="1"/>
@@ -7207,7 +7532,7 @@
       <c r="Y230" s="1"/>
       <c r="Z230" s="1"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="2"/>
       <c r="C231" s="1"/>
@@ -7235,7 +7560,7 @@
       <c r="Y231" s="1"/>
       <c r="Z231" s="1"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" s="2"/>
       <c r="C232" s="1"/>
@@ -7263,7 +7588,7 @@
       <c r="Y232" s="1"/>
       <c r="Z232" s="1"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" s="2"/>
       <c r="C233" s="1"/>
@@ -7291,7 +7616,7 @@
       <c r="Y233" s="1"/>
       <c r="Z233" s="1"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" s="2"/>
       <c r="C234" s="1"/>
@@ -7319,7 +7644,7 @@
       <c r="Y234" s="1"/>
       <c r="Z234" s="1"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" s="2"/>
       <c r="C235" s="1"/>
@@ -7347,7 +7672,7 @@
       <c r="Y235" s="1"/>
       <c r="Z235" s="1"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" s="2"/>
       <c r="C236" s="1"/>
@@ -7375,7 +7700,7 @@
       <c r="Y236" s="1"/>
       <c r="Z236" s="1"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" s="2"/>
       <c r="C237" s="1"/>
@@ -7403,7 +7728,7 @@
       <c r="Y237" s="1"/>
       <c r="Z237" s="1"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238" s="2"/>
       <c r="C238" s="1"/>
@@ -7431,7 +7756,7 @@
       <c r="Y238" s="1"/>
       <c r="Z238" s="1"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" s="2"/>
       <c r="C239" s="1"/>
@@ -7459,7 +7784,7 @@
       <c r="Y239" s="1"/>
       <c r="Z239" s="1"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="2"/>
       <c r="C240" s="1"/>
@@ -7487,7 +7812,7 @@
       <c r="Y240" s="1"/>
       <c r="Z240" s="1"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
       <c r="C241" s="1"/>
@@ -7515,7 +7840,7 @@
       <c r="Y241" s="1"/>
       <c r="Z241" s="1"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="2"/>
       <c r="C242" s="1"/>
@@ -7543,7 +7868,7 @@
       <c r="Y242" s="1"/>
       <c r="Z242" s="1"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" s="2"/>
       <c r="C243" s="1"/>
@@ -7571,7 +7896,7 @@
       <c r="Y243" s="1"/>
       <c r="Z243" s="1"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="2"/>
       <c r="C244" s="1"/>
@@ -7599,7 +7924,7 @@
       <c r="Y244" s="1"/>
       <c r="Z244" s="1"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="2"/>
       <c r="C245" s="1"/>
@@ -7627,7 +7952,7 @@
       <c r="Y245" s="1"/>
       <c r="Z245" s="1"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
       <c r="C246" s="1"/>
@@ -7655,7 +7980,7 @@
       <c r="Y246" s="1"/>
       <c r="Z246" s="1"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="2"/>
       <c r="C247" s="1"/>
@@ -7683,7 +8008,7 @@
       <c r="Y247" s="1"/>
       <c r="Z247" s="1"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="2"/>
       <c r="C248" s="1"/>
@@ -7711,7 +8036,7 @@
       <c r="Y248" s="1"/>
       <c r="Z248" s="1"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" s="2"/>
       <c r="C249" s="1"/>
@@ -7739,7 +8064,7 @@
       <c r="Y249" s="1"/>
       <c r="Z249" s="1"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="2"/>
       <c r="C250" s="1"/>
@@ -7767,7 +8092,7 @@
       <c r="Y250" s="1"/>
       <c r="Z250" s="1"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="B251" s="2"/>
       <c r="C251" s="1"/>
@@ -7795,7 +8120,7 @@
       <c r="Y251" s="1"/>
       <c r="Z251" s="1"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" s="2"/>
       <c r="C252" s="1"/>
@@ -7823,7 +8148,7 @@
       <c r="Y252" s="1"/>
       <c r="Z252" s="1"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" s="2"/>
       <c r="C253" s="1"/>
@@ -7851,7 +8176,7 @@
       <c r="Y253" s="1"/>
       <c r="Z253" s="1"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="B254" s="2"/>
       <c r="C254" s="1"/>
@@ -7879,7 +8204,7 @@
       <c r="Y254" s="1"/>
       <c r="Z254" s="1"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="2"/>
       <c r="C255" s="1"/>
@@ -7907,7 +8232,7 @@
       <c r="Y255" s="1"/>
       <c r="Z255" s="1"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="B256" s="2"/>
       <c r="C256" s="1"/>
@@ -7935,7 +8260,7 @@
       <c r="Y256" s="1"/>
       <c r="Z256" s="1"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
       <c r="C257" s="1"/>
@@ -7963,7 +8288,7 @@
       <c r="Y257" s="1"/>
       <c r="Z257" s="1"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="B258" s="2"/>
       <c r="C258" s="1"/>
@@ -7991,7 +8316,7 @@
       <c r="Y258" s="1"/>
       <c r="Z258" s="1"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="B259" s="2"/>
       <c r="C259" s="1"/>
@@ -8019,7 +8344,7 @@
       <c r="Y259" s="1"/>
       <c r="Z259" s="1"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="B260" s="2"/>
       <c r="C260" s="1"/>
@@ -8047,7 +8372,7 @@
       <c r="Y260" s="1"/>
       <c r="Z260" s="1"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
       <c r="B261" s="2"/>
       <c r="C261" s="1"/>
@@ -8075,7 +8400,7 @@
       <c r="Y261" s="1"/>
       <c r="Z261" s="1"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="B262" s="2"/>
       <c r="C262" s="1"/>
@@ -8103,7 +8428,7 @@
       <c r="Y262" s="1"/>
       <c r="Z262" s="1"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
       <c r="B263" s="2"/>
       <c r="C263" s="1"/>
@@ -8131,7 +8456,7 @@
       <c r="Y263" s="1"/>
       <c r="Z263" s="1"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
       <c r="B264" s="2"/>
       <c r="C264" s="1"/>
@@ -8159,7 +8484,7 @@
       <c r="Y264" s="1"/>
       <c r="Z264" s="1"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
       <c r="B265" s="2"/>
       <c r="C265" s="1"/>
@@ -8187,7 +8512,7 @@
       <c r="Y265" s="1"/>
       <c r="Z265" s="1"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
       <c r="B266" s="2"/>
       <c r="C266" s="1"/>
@@ -8215,735 +8540,733 @@
       <c r="Y266" s="1"/>
       <c r="Z266" s="1"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.25" right="0.25" top="0.75"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/elaborati MPI/elaborato_2/prodotto_matrice_vettore_blocchi/test_valutazione_elab2_prodotto_blocchi.xlsx
+++ b/elaborati MPI/elaborato_2/prodotto_matrice_vettore_blocchi/test_valutazione_elab2_prodotto_blocchi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabio/Desktop/CP/GIT/Calcolo-Parallelo/elaborati MPI/elaborato_2/prodotto_matrice_vettore_blocchi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pa0l0\Documents\GitHub\Calcolo-Parallelo\elaborati MPI\elaborato_2\prodotto_matrice_vettore_blocchi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB30ACC-D654-6048-A0F7-CA265E640F5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3F9968-A359-4B27-8CF7-86A560A497AA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,14 @@
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -94,23 +102,27 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -238,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -314,6 +326,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -632,27 +661,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z991"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.5" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" customWidth="1"/>
-    <col min="7" max="7" width="30.83203125" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.1796875" customWidth="1"/>
+    <col min="4" max="4" width="26.36328125" customWidth="1"/>
+    <col min="5" max="5" width="26.453125" customWidth="1"/>
+    <col min="6" max="6" width="24.81640625" customWidth="1"/>
+    <col min="7" max="7" width="30.81640625" customWidth="1"/>
+    <col min="8" max="8" width="15.6328125" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="18.5" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" customWidth="1"/>
-    <col min="12" max="26" width="8.83203125" customWidth="1"/>
+    <col min="10" max="10" width="18.453125" customWidth="1"/>
+    <col min="11" max="11" width="18.36328125" customWidth="1"/>
+    <col min="12" max="26" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -679,7 +708,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -708,7 +737,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -741,7 +770,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8">
@@ -774,7 +803,7 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -814,7 +843,7 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>9</v>
       </c>
@@ -854,7 +883,7 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>16</v>
       </c>
@@ -894,7 +923,7 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
@@ -925,7 +954,7 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8">
@@ -958,7 +987,7 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>4</v>
       </c>
@@ -998,7 +1027,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -1038,7 +1067,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>16</v>
       </c>
@@ -1078,7 +1107,7 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>1</v>
       </c>
@@ -1111,7 +1140,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8">
@@ -1144,7 +1173,7 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>4</v>
       </c>
@@ -1184,7 +1213,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>9</v>
       </c>
@@ -1224,7 +1253,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -1264,7 +1293,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="12"/>
@@ -1291,7 +1320,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
@@ -1318,7 +1347,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
@@ -1347,7 +1376,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>1</v>
       </c>
@@ -1380,7 +1409,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8">
@@ -1413,7 +1442,7 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
     </row>
-    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>4</v>
       </c>
@@ -1453,22 +1482,22 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>9</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="37">
         <f t="shared" ref="C24:E24" si="10">C6/9</f>
         <v>0.82666549943097234</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="37">
         <f t="shared" si="10"/>
         <v>0.96283409097269745</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="39">
         <f t="shared" si="10"/>
         <v>0.96472815133725431</v>
       </c>
@@ -1493,22 +1522,22 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>16</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="40">
         <f t="shared" ref="C25:E25" si="11">C7/16</f>
         <v>0.61399693677032097</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="40">
         <f t="shared" si="11"/>
         <v>0.7329225343539697</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="41">
         <f t="shared" si="11"/>
         <v>0.95881517435403141</v>
       </c>
@@ -1533,16 +1562,16 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="43"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1564,16 +1593,16 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="8">
+      <c r="C27" s="44">
         <v>100</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="44">
         <v>1000</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="45">
         <v>10000</v>
       </c>
       <c r="F27" s="19"/>
@@ -1597,7 +1626,7 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
     </row>
-    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <v>4</v>
       </c>
@@ -1637,22 +1666,22 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
         <v>9</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="37">
         <f t="shared" ref="C29:E29" si="13">C11/9</f>
         <v>0.21957671957673544</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="37">
         <f t="shared" si="13"/>
         <v>0.91207887355363182</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="39">
         <f t="shared" si="13"/>
         <v>0.92276144096341162</v>
       </c>
@@ -1677,22 +1706,22 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
         <v>16</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="40">
         <f t="shared" ref="C30:E30" si="14">C12/16</f>
         <v>0.12591019417475172</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="40">
         <f t="shared" si="14"/>
         <v>0.51641369032583362</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="41">
         <f t="shared" si="14"/>
         <v>0.76560916341652896</v>
       </c>
@@ -1717,18 +1746,18 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="43"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="1"/>
@@ -1750,16 +1779,16 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="8">
+      <c r="C32" s="44">
         <v>5000</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="44">
         <v>50000</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="45">
         <v>300000</v>
       </c>
       <c r="F32" s="19"/>
@@ -1783,7 +1812,7 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
         <v>4</v>
       </c>
@@ -1823,22 +1852,22 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10">
         <v>9</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="37">
         <f t="shared" ref="C34:E34" si="16">C16/9</f>
         <v>0.4686193090291248</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="37">
         <f t="shared" si="16"/>
         <v>0.85386621111310745</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="39">
         <f t="shared" si="16"/>
         <v>0.96103573036897949</v>
       </c>
@@ -1863,22 +1892,22 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10">
         <v>16</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="40">
         <f t="shared" ref="C35:E35" si="17">C17/16</f>
         <v>0.45694008121898039</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="40">
         <f t="shared" si="17"/>
         <v>0.84535529112735064</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="41">
         <f t="shared" si="17"/>
         <v>0.8886298399492808</v>
       </c>
@@ -1903,7 +1932,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="12"/>
@@ -1930,7 +1959,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="12"/>
@@ -1957,7 +1986,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
@@ -1986,7 +2015,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>1</v>
       </c>
@@ -2019,7 +2048,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="7" t="s">
         <v>12</v>
@@ -2054,7 +2083,7 @@
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
         <v>4</v>
       </c>
@@ -2091,7 +2120,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="10">
         <v>9</v>
       </c>
@@ -2128,7 +2157,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10">
         <v>16</v>
       </c>
@@ -2166,7 +2195,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>1</v>
       </c>
@@ -2198,7 +2227,7 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="B45" s="7" t="s">
         <v>12</v>
@@ -2234,7 +2263,7 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="10">
         <v>4</v>
       </c>
@@ -2272,7 +2301,7 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10">
         <v>9</v>
       </c>
@@ -2310,7 +2339,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="10">
         <v>16</v>
       </c>
@@ -2348,7 +2377,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>1</v>
       </c>
@@ -2382,7 +2411,7 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="7" t="s">
         <v>12</v>
@@ -2418,7 +2447,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10">
         <v>4</v>
       </c>
@@ -2456,7 +2485,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="10">
         <v>9</v>
       </c>
@@ -2494,7 +2523,7 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="10">
         <v>16</v>
       </c>
@@ -2534,7 +2563,7 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="3"/>
@@ -2562,7 +2591,7 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="3"/>
@@ -2590,7 +2619,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
@@ -2620,7 +2649,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="3"/>
@@ -2648,7 +2677,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="31"/>
       <c r="B58" s="32" t="s">
         <v>12</v>
@@ -2684,7 +2713,7 @@
       <c r="Y58" s="31"/>
       <c r="Z58" s="31"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="33" t="s">
         <v>14</v>
@@ -2720,7 +2749,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="33" t="s">
         <v>15</v>
@@ -2762,7 +2791,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="33" t="s">
         <v>16</v>
@@ -2798,7 +2827,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="35"/>
       <c r="B62" s="31"/>
       <c r="C62" s="35"/>
@@ -2826,7 +2855,7 @@
       <c r="Y62" s="35"/>
       <c r="Z62" s="35"/>
     </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="3"/>
@@ -2854,7 +2883,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="3"/>
@@ -2882,7 +2911,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="3"/>
@@ -2910,7 +2939,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
@@ -2940,7 +2969,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
@@ -2968,7 +2997,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
@@ -2996,7 +3025,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
@@ -3024,7 +3053,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
@@ -3052,7 +3081,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
@@ -3080,7 +3109,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
@@ -3108,7 +3137,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
@@ -3136,7 +3165,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -3164,7 +3193,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -3192,7 +3221,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -3220,7 +3249,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -3248,7 +3277,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -3276,7 +3305,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -3304,7 +3333,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -3332,7 +3361,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -3360,7 +3389,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -3388,7 +3417,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -3416,7 +3445,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -3444,7 +3473,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -3472,7 +3501,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -3500,7 +3529,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
@@ -3528,7 +3557,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -3556,7 +3585,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -3584,7 +3613,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -3612,7 +3641,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -3640,7 +3669,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -3668,7 +3697,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -3696,7 +3725,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -3724,7 +3753,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -3752,7 +3781,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -3780,7 +3809,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -3808,7 +3837,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -3836,7 +3865,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -3864,7 +3893,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -3892,7 +3921,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -3920,7 +3949,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -3948,7 +3977,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -3976,7 +4005,7 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -4004,7 +4033,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -4032,7 +4061,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -4060,7 +4089,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -4088,7 +4117,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -4116,7 +4145,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
@@ -4144,7 +4173,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
@@ -4172,7 +4201,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
@@ -4200,7 +4229,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
@@ -4228,7 +4257,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -4256,7 +4285,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -4284,7 +4313,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
@@ -4312,7 +4341,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
@@ -4340,7 +4369,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
@@ -4368,7 +4397,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
@@ -4396,7 +4425,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
@@ -4424,7 +4453,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
@@ -4452,7 +4481,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
@@ -4480,7 +4509,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
@@ -4508,7 +4537,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
@@ -4536,7 +4565,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
@@ -4564,7 +4593,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
@@ -4592,7 +4621,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
@@ -4620,7 +4649,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
@@ -4648,7 +4677,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
@@ -4676,7 +4705,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
@@ -4704,7 +4733,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
@@ -4732,7 +4761,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
@@ -4760,7 +4789,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
@@ -4788,7 +4817,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
@@ -4816,7 +4845,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
@@ -4844,7 +4873,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
@@ -4872,7 +4901,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
@@ -4900,7 +4929,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
@@ -4928,7 +4957,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
@@ -4956,7 +4985,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
@@ -4984,7 +5013,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
@@ -5012,7 +5041,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
@@ -5040,7 +5069,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
@@ -5068,7 +5097,7 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
@@ -5096,7 +5125,7 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
@@ -5124,7 +5153,7 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
@@ -5152,7 +5181,7 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
@@ -5180,7 +5209,7 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
@@ -5208,7 +5237,7 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
@@ -5236,7 +5265,7 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
@@ -5264,7 +5293,7 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
     </row>
-    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
@@ -5292,7 +5321,7 @@
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
     </row>
-    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
@@ -5320,7 +5349,7 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
     </row>
-    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
@@ -5348,7 +5377,7 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
@@ -5376,7 +5405,7 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
     </row>
-    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
@@ -5404,7 +5433,7 @@
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
     </row>
-    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
@@ -5432,7 +5461,7 @@
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
     </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
@@ -5460,7 +5489,7 @@
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
     </row>
-    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
@@ -5488,7 +5517,7 @@
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
     </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
@@ -5516,7 +5545,7 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
     </row>
-    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
@@ -5544,7 +5573,7 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
@@ -5572,7 +5601,7 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
@@ -5600,7 +5629,7 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
@@ -5628,7 +5657,7 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
     </row>
-    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
@@ -5656,7 +5685,7 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
     </row>
-    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
@@ -5684,7 +5713,7 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
@@ -5712,7 +5741,7 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
     </row>
-    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
@@ -5740,7 +5769,7 @@
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
     </row>
-    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
@@ -5768,7 +5797,7 @@
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
     </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
@@ -5796,7 +5825,7 @@
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
     </row>
-    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
@@ -5824,7 +5853,7 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
     </row>
-    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
@@ -5852,7 +5881,7 @@
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
     </row>
-    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
@@ -5880,7 +5909,7 @@
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
     </row>
-    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
@@ -5908,7 +5937,7 @@
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
     </row>
-    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
@@ -5936,7 +5965,7 @@
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
     </row>
-    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
@@ -5964,7 +5993,7 @@
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
     </row>
-    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
@@ -5992,7 +6021,7 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
     </row>
-    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
@@ -6020,7 +6049,7 @@
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
     </row>
-    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
@@ -6048,7 +6077,7 @@
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
     </row>
-    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
@@ -6076,7 +6105,7 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
     </row>
-    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
@@ -6104,7 +6133,7 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
@@ -6132,7 +6161,7 @@
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
     </row>
-    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
@@ -6160,7 +6189,7 @@
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
     </row>
-    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
@@ -6188,7 +6217,7 @@
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
     </row>
-    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
@@ -6216,7 +6245,7 @@
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
     </row>
-    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
@@ -6244,7 +6273,7 @@
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
     </row>
-    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
@@ -6272,7 +6301,7 @@
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
     </row>
-    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
@@ -6300,7 +6329,7 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
     </row>
-    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
@@ -6328,7 +6357,7 @@
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
     </row>
-    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
@@ -6356,7 +6385,7 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
     </row>
-    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
@@ -6384,7 +6413,7 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
     </row>
-    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
@@ -6412,7 +6441,7 @@
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
     </row>
-    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
@@ -6440,7 +6469,7 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
     </row>
-    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
@@ -6468,7 +6497,7 @@
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
     </row>
-    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
@@ -6496,7 +6525,7 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
     </row>
-    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
@@ -6524,7 +6553,7 @@
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
     </row>
-    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
@@ -6552,7 +6581,7 @@
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
     </row>
-    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
@@ -6580,7 +6609,7 @@
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
     </row>
-    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
@@ -6608,7 +6637,7 @@
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
     </row>
-    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
@@ -6636,7 +6665,7 @@
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
     </row>
-    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
@@ -6664,7 +6693,7 @@
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
     </row>
-    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
@@ -6692,7 +6721,7 @@
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
     </row>
-    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="1"/>
@@ -6720,7 +6749,7 @@
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
     </row>
-    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
       <c r="C202" s="1"/>
@@ -6748,7 +6777,7 @@
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
     </row>
-    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
       <c r="C203" s="1"/>
@@ -6776,7 +6805,7 @@
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
     </row>
-    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
       <c r="C204" s="1"/>
@@ -6804,7 +6833,7 @@
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
     </row>
-    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
       <c r="B205" s="2"/>
       <c r="C205" s="1"/>
@@ -6832,7 +6861,7 @@
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
     </row>
-    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
       <c r="C206" s="1"/>
@@ -6860,7 +6889,7 @@
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
     </row>
-    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
       <c r="C207" s="1"/>
@@ -6888,7 +6917,7 @@
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
     </row>
-    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
       <c r="C208" s="1"/>
@@ -6916,7 +6945,7 @@
       <c r="Y208" s="1"/>
       <c r="Z208" s="1"/>
     </row>
-    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
       <c r="C209" s="1"/>
@@ -6944,7 +6973,7 @@
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
     </row>
-    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
       <c r="C210" s="1"/>
@@ -6972,7 +7001,7 @@
       <c r="Y210" s="1"/>
       <c r="Z210" s="1"/>
     </row>
-    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="1"/>
       <c r="B211" s="2"/>
       <c r="C211" s="1"/>
@@ -7000,7 +7029,7 @@
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
     </row>
-    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="1"/>
       <c r="B212" s="2"/>
       <c r="C212" s="1"/>
@@ -7028,7 +7057,7 @@
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
     </row>
-    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
       <c r="C213" s="1"/>
@@ -7056,7 +7085,7 @@
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
     </row>
-    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
       <c r="C214" s="1"/>
@@ -7084,7 +7113,7 @@
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
     </row>
-    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
       <c r="C215" s="1"/>
@@ -7112,7 +7141,7 @@
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
     </row>
-    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
       <c r="C216" s="1"/>
@@ -7140,7 +7169,7 @@
       <c r="Y216" s="1"/>
       <c r="Z216" s="1"/>
     </row>
-    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
       <c r="C217" s="1"/>
@@ -7168,7 +7197,7 @@
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
     </row>
-    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
       <c r="C218" s="1"/>
@@ -7196,7 +7225,7 @@
       <c r="Y218" s="1"/>
       <c r="Z218" s="1"/>
     </row>
-    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1"/>
       <c r="B219" s="2"/>
       <c r="C219" s="1"/>
@@ -7224,7 +7253,7 @@
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
     </row>
-    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
       <c r="C220" s="1"/>
@@ -7252,7 +7281,7 @@
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
     </row>
-    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
       <c r="C221" s="1"/>
@@ -7280,7 +7309,7 @@
       <c r="Y221" s="1"/>
       <c r="Z221" s="1"/>
     </row>
-    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
       <c r="C222" s="1"/>
@@ -7308,7 +7337,7 @@
       <c r="Y222" s="1"/>
       <c r="Z222" s="1"/>
     </row>
-    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="1"/>
       <c r="B223" s="2"/>
       <c r="C223" s="1"/>
@@ -7336,7 +7365,7 @@
       <c r="Y223" s="1"/>
       <c r="Z223" s="1"/>
     </row>
-    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
       <c r="C224" s="1"/>
@@ -7364,7 +7393,7 @@
       <c r="Y224" s="1"/>
       <c r="Z224" s="1"/>
     </row>
-    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
       <c r="C225" s="1"/>
@@ -7392,7 +7421,7 @@
       <c r="Y225" s="1"/>
       <c r="Z225" s="1"/>
     </row>
-    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="1"/>
       <c r="B226" s="2"/>
       <c r="C226" s="1"/>
@@ -7420,7 +7449,7 @@
       <c r="Y226" s="1"/>
       <c r="Z226" s="1"/>
     </row>
-    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="1"/>
       <c r="B227" s="2"/>
       <c r="C227" s="1"/>
@@ -7448,7 +7477,7 @@
       <c r="Y227" s="1"/>
       <c r="Z227" s="1"/>
     </row>
-    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="1"/>
       <c r="B228" s="2"/>
       <c r="C228" s="1"/>
@@ -7476,7 +7505,7 @@
       <c r="Y228" s="1"/>
       <c r="Z228" s="1"/>
     </row>
-    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="1"/>
       <c r="B229" s="2"/>
       <c r="C229" s="1"/>
@@ -7504,7 +7533,7 @@
       <c r="Y229" s="1"/>
       <c r="Z229" s="1"/>
     </row>
-    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="1"/>
       <c r="B230" s="2"/>
       <c r="C230" s="1"/>
@@ -7532,7 +7561,7 @@
       <c r="Y230" s="1"/>
       <c r="Z230" s="1"/>
     </row>
-    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="1"/>
       <c r="B231" s="2"/>
       <c r="C231" s="1"/>
@@ -7560,7 +7589,7 @@
       <c r="Y231" s="1"/>
       <c r="Z231" s="1"/>
     </row>
-    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="1"/>
       <c r="B232" s="2"/>
       <c r="C232" s="1"/>
@@ -7588,7 +7617,7 @@
       <c r="Y232" s="1"/>
       <c r="Z232" s="1"/>
     </row>
-    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="1"/>
       <c r="B233" s="2"/>
       <c r="C233" s="1"/>
@@ -7616,7 +7645,7 @@
       <c r="Y233" s="1"/>
       <c r="Z233" s="1"/>
     </row>
-    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="1"/>
       <c r="B234" s="2"/>
       <c r="C234" s="1"/>
@@ -7644,7 +7673,7 @@
       <c r="Y234" s="1"/>
       <c r="Z234" s="1"/>
     </row>
-    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="1"/>
       <c r="B235" s="2"/>
       <c r="C235" s="1"/>
@@ -7672,7 +7701,7 @@
       <c r="Y235" s="1"/>
       <c r="Z235" s="1"/>
     </row>
-    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="1"/>
       <c r="B236" s="2"/>
       <c r="C236" s="1"/>
@@ -7700,7 +7729,7 @@
       <c r="Y236" s="1"/>
       <c r="Z236" s="1"/>
     </row>
-    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="1"/>
       <c r="B237" s="2"/>
       <c r="C237" s="1"/>
@@ -7728,7 +7757,7 @@
       <c r="Y237" s="1"/>
       <c r="Z237" s="1"/>
     </row>
-    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="1"/>
       <c r="B238" s="2"/>
       <c r="C238" s="1"/>
@@ -7756,7 +7785,7 @@
       <c r="Y238" s="1"/>
       <c r="Z238" s="1"/>
     </row>
-    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="1"/>
       <c r="B239" s="2"/>
       <c r="C239" s="1"/>
@@ -7784,7 +7813,7 @@
       <c r="Y239" s="1"/>
       <c r="Z239" s="1"/>
     </row>
-    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="1"/>
       <c r="B240" s="2"/>
       <c r="C240" s="1"/>
@@ -7812,7 +7841,7 @@
       <c r="Y240" s="1"/>
       <c r="Z240" s="1"/>
     </row>
-    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
       <c r="C241" s="1"/>
@@ -7840,7 +7869,7 @@
       <c r="Y241" s="1"/>
       <c r="Z241" s="1"/>
     </row>
-    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="1"/>
       <c r="B242" s="2"/>
       <c r="C242" s="1"/>
@@ -7868,7 +7897,7 @@
       <c r="Y242" s="1"/>
       <c r="Z242" s="1"/>
     </row>
-    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="1"/>
       <c r="B243" s="2"/>
       <c r="C243" s="1"/>
@@ -7896,7 +7925,7 @@
       <c r="Y243" s="1"/>
       <c r="Z243" s="1"/>
     </row>
-    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="1"/>
       <c r="B244" s="2"/>
       <c r="C244" s="1"/>
@@ -7924,7 +7953,7 @@
       <c r="Y244" s="1"/>
       <c r="Z244" s="1"/>
     </row>
-    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="1"/>
       <c r="B245" s="2"/>
       <c r="C245" s="1"/>
@@ -7952,7 +7981,7 @@
       <c r="Y245" s="1"/>
       <c r="Z245" s="1"/>
     </row>
-    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
       <c r="C246" s="1"/>
@@ -7980,7 +8009,7 @@
       <c r="Y246" s="1"/>
       <c r="Z246" s="1"/>
     </row>
-    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="1"/>
       <c r="B247" s="2"/>
       <c r="C247" s="1"/>
@@ -8008,7 +8037,7 @@
       <c r="Y247" s="1"/>
       <c r="Z247" s="1"/>
     </row>
-    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="1"/>
       <c r="B248" s="2"/>
       <c r="C248" s="1"/>
@@ -8036,7 +8065,7 @@
       <c r="Y248" s="1"/>
       <c r="Z248" s="1"/>
     </row>
-    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="1"/>
       <c r="B249" s="2"/>
       <c r="C249" s="1"/>
@@ -8064,7 +8093,7 @@
       <c r="Y249" s="1"/>
       <c r="Z249" s="1"/>
     </row>
-    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="1"/>
       <c r="B250" s="2"/>
       <c r="C250" s="1"/>
@@ -8092,7 +8121,7 @@
       <c r="Y250" s="1"/>
       <c r="Z250" s="1"/>
     </row>
-    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="1"/>
       <c r="B251" s="2"/>
       <c r="C251" s="1"/>
@@ -8120,7 +8149,7 @@
       <c r="Y251" s="1"/>
       <c r="Z251" s="1"/>
     </row>
-    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="1"/>
       <c r="B252" s="2"/>
       <c r="C252" s="1"/>
@@ -8148,7 +8177,7 @@
       <c r="Y252" s="1"/>
       <c r="Z252" s="1"/>
     </row>
-    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="1"/>
       <c r="B253" s="2"/>
       <c r="C253" s="1"/>
@@ -8176,7 +8205,7 @@
       <c r="Y253" s="1"/>
       <c r="Z253" s="1"/>
     </row>
-    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="1"/>
       <c r="B254" s="2"/>
       <c r="C254" s="1"/>
@@ -8204,7 +8233,7 @@
       <c r="Y254" s="1"/>
       <c r="Z254" s="1"/>
     </row>
-    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="1"/>
       <c r="B255" s="2"/>
       <c r="C255" s="1"/>
@@ -8232,7 +8261,7 @@
       <c r="Y255" s="1"/>
       <c r="Z255" s="1"/>
     </row>
-    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="1"/>
       <c r="B256" s="2"/>
       <c r="C256" s="1"/>
@@ -8260,7 +8289,7 @@
       <c r="Y256" s="1"/>
       <c r="Z256" s="1"/>
     </row>
-    <row r="257" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
       <c r="C257" s="1"/>
@@ -8288,7 +8317,7 @@
       <c r="Y257" s="1"/>
       <c r="Z257" s="1"/>
     </row>
-    <row r="258" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="1"/>
       <c r="B258" s="2"/>
       <c r="C258" s="1"/>
@@ -8316,7 +8345,7 @@
       <c r="Y258" s="1"/>
       <c r="Z258" s="1"/>
     </row>
-    <row r="259" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="1"/>
       <c r="B259" s="2"/>
       <c r="C259" s="1"/>
@@ -8344,7 +8373,7 @@
       <c r="Y259" s="1"/>
       <c r="Z259" s="1"/>
     </row>
-    <row r="260" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="1"/>
       <c r="B260" s="2"/>
       <c r="C260" s="1"/>
@@ -8372,7 +8401,7 @@
       <c r="Y260" s="1"/>
       <c r="Z260" s="1"/>
     </row>
-    <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="1"/>
       <c r="B261" s="2"/>
       <c r="C261" s="1"/>
@@ -8400,7 +8429,7 @@
       <c r="Y261" s="1"/>
       <c r="Z261" s="1"/>
     </row>
-    <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="1"/>
       <c r="B262" s="2"/>
       <c r="C262" s="1"/>
@@ -8428,7 +8457,7 @@
       <c r="Y262" s="1"/>
       <c r="Z262" s="1"/>
     </row>
-    <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="1"/>
       <c r="B263" s="2"/>
       <c r="C263" s="1"/>
@@ -8456,7 +8485,7 @@
       <c r="Y263" s="1"/>
       <c r="Z263" s="1"/>
     </row>
-    <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="1"/>
       <c r="B264" s="2"/>
       <c r="C264" s="1"/>
@@ -8484,7 +8513,7 @@
       <c r="Y264" s="1"/>
       <c r="Z264" s="1"/>
     </row>
-    <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="1"/>
       <c r="B265" s="2"/>
       <c r="C265" s="1"/>
@@ -8512,7 +8541,7 @@
       <c r="Y265" s="1"/>
       <c r="Z265" s="1"/>
     </row>
-    <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="1"/>
       <c r="B266" s="2"/>
       <c r="C266" s="1"/>
@@ -8540,731 +8569,731 @@
       <c r="Y266" s="1"/>
       <c r="Z266" s="1"/>
     </row>
-    <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="268" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="270" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="271" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="272" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
